--- a/biology/Zoologie/Hippotion_rosetta/Hippotion_rosetta.xlsx
+++ b/biology/Zoologie/Hippotion_rosetta/Hippotion_rosetta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippotion rosetta est une espèce de lépidoptères de la famille des Sphingidae, de la sous-famille des Macroglossinae, de la tribu des Macroglossini et du genre Hippotion. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Apers du mâle (coll.MHNT)
@@ -546,7 +560,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 L'espèce est connue du sud du Pakistan à l'Inde et au Sri Lanka. À l'est, en Thaïlande, dans le sud de la Chine et à Taiwan. Vers le sud, du Japon (l'archipel Ryukyu) et aux Philippines, puis vers le sud à travers l'Asie du sud-est aux îles Andaman, dans l'est en Indonésie, les îles Salomon et le détroit de Torres en Nouvelle-Guinée .</t>
@@ -577,10 +593,12 @@
           <t>Biologie et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a plusieurs générations par an à Hong Kong, avec des imagos de mars à novembre, avec des pics à la fin mars, mai et début octobre.
-Des chenilles ont été observées sur les espèces du genre Borreria[1], mias aussi Morinda citrifolia et Morinda umbellata, ainsi que sur Pentas lanceolata.
+Des chenilles ont été observées sur les espèces du genre Borreria, mias aussi Morinda citrifolia et Morinda umbellata, ainsi que sur Pentas lanceolata.
 </t>
         </is>
       </c>
@@ -609,11 +627,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Hippotion rosetta a été décrite  par le naturaliste britannique Charles Swinhoe en 1892, sous le nom initial de Choerocampa rosetta[2].
-Synonymie
-Choerocampa rosetta Swinhoe, 1892 protonyme.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hippotion rosetta a été décrite  par le naturaliste britannique Charles Swinhoe en 1892, sous le nom initial de Choerocampa rosetta.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hippotion_rosetta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hippotion_rosetta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Choerocampa rosetta Swinhoe, 1892 protonyme.
 Hippotion depictum Dupont, 1941</t>
         </is>
       </c>
